--- a/漫展信息/广州-漫展信息.xlsx
+++ b/漫展信息/广州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -511,20 +506,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11368</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>11498</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80066</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80066</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202312/A6Y7rq9y1703560330806.jpeg</t>
         </is>
@@ -541,36 +535,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广州.星火.AI次元动漫展</t>
+          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>沙滘中路41-50号 火星工厂</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.27 12:00-01.29 00:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1869</v>
+        <v>781</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80415</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78754</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Yq9dmngw1704858430914.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/QrQcGQoV1704268205303.jpeg</t>
         </is>
       </c>
     </row>
@@ -580,41 +571,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广州·妖都魔法少女小圆ONLY</t>
+          <t>广州·文豪野犬only</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="G4" t="n">
-        <v>68</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80436</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79748</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/usRmAiWv1702894629137.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/ghqTgq3H1705290829994.jpeg</t>
         </is>
       </c>
     </row>
@@ -624,41 +612,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·第七届萌物语动漫嘉年华</t>
+          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+          <t>东圃中山大道中358号 轰谧斯酒店</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.02.01 10:00-02.01 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>815</v>
+        <v>484</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80184</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79317</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/YY2vfMJS1705657564136.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/n7B2YOEs1705908251849.png</t>
         </is>
       </c>
     </row>
@@ -668,41 +653,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州·第五人格only唐人街春市</t>
+          <t>从化·FS动漫展</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>从城大道383号 云岭湖酒店</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:30</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2411</v>
+        <v>1428</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77976</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79038</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/VUDfqbd61701069000614.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/z2IAZVfI1698830153507.jpeg</t>
         </is>
       </c>
     </row>
@@ -712,41 +694,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
+          <t>广州·怀旧ONLY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沙滘中路41-50号 火星工厂</t>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.27 12:00-01.29 00:00</t>
+          <t>2024.02.03 10:00-02.03 16:30</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="G7" t="n">
-        <v>48</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79752</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80415</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/QrQcGQoV1704268205303.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Ct8POYAX1704185345057.jpeg</t>
         </is>
       </c>
     </row>
@@ -756,41 +735,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州·蓝锁only2.0</t>
+          <t>广州·原神x星铁x崩坏ONLY</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大石街石北工业大道644号 巨大创意产业园</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.02.04 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>984</v>
+        <v>157</v>
       </c>
       <c r="G8" t="n">
-        <v>65</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81073</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79750</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/ERj7a4FV1702459336221.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/z160zins1705635411945.jpeg</t>
         </is>
       </c>
     </row>
@@ -800,41 +776,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广州·文豪野犬only</t>
+          <t>广州 · 原神x星穹铁道Only</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>钟落潭镇 越秀·白云·星汇城</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.02.12 10:00-02.12 17:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>577</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81331</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80436</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/ghqTgq3H1705290829994.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/RMPUzrbI1706077790086.jpeg</t>
         </is>
       </c>
     </row>
@@ -844,41 +817,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广州·排球少年.only</t>
+          <t>广州·EY动漫嘉年华</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>钟落潭镇 越秀·白云·星汇城</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.29 10:00-01.29 17:00</t>
+          <t>2024.02.12 10:00-02.12 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>444</v>
+        <v>1038</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80574</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80453</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/JYZdnQHl1704341212206.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/MMh15Yoz1704700792562.jpeg</t>
         </is>
       </c>
     </row>
@@ -888,41 +858,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广州·进击的巨人only</t>
+          <t>广州·运动番only4.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.30 10:00-01.30 17:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>474</v>
+        <v>597</v>
       </c>
       <c r="G11" t="n">
         <v>60</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80499</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80454</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/m8QkMfFl1704347300282.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/PIe3tyn61705383800643.jpeg</t>
         </is>
       </c>
     </row>
@@ -932,41 +899,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
+          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>东圃中山大道中358号 轰谧斯酒店</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.01 10:00-02.01 17:00</t>
+          <t>2024.02.16 09:30-02.16 16:30</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>436</v>
+        <v>710</v>
       </c>
       <c r="G12" t="n">
-        <v>68</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79914</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80184</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/n7B2YOEs1705908251849.png</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/5TL7q6uK1702897965361.jpeg</t>
         </is>
       </c>
     </row>
@@ -976,41 +940,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>从化·FS动漫展</t>
+          <t>广州·樱漫动漫嘉年华8.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>从城大道383号 云岭湖酒店</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1298</v>
+        <v>1202</v>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79792</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77976</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202311/z2IAZVfI1698830153507.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/pxg3W5Hu1702536379071.jpeg</t>
         </is>
       </c>
     </row>
@@ -1020,41 +981,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广州·怀旧ONLY</t>
+          <t>广州·星火.AI动漫嘉年华3.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>迎宾路(沙溪路段)111号-3 美丽豪酒店(广州沙溪地铁站国际酒店用品城店)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 16:30</t>
+          <t>2024.02.17 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>625</v>
+        <v>236</v>
       </c>
       <c r="G14" t="n">
-        <v>75</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80961</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79752</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Ct8POYAX1704185345057.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/Fm8iCNPM1705483173204.jpeg</t>
         </is>
       </c>
     </row>
@@ -1064,41 +1022,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广州·原神x星铁x崩坏ONLY</t>
+          <t>广州·cooperative kingdom同人展2.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>洛浦街夏滘西环路1号 岭南电商园</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 17:00</t>
+          <t>2024.02.18 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>969</v>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79264</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81073</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/z160zins1705635411945.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/lZQgvkwg1701411941873.jpeg</t>
         </is>
       </c>
     </row>
@@ -1108,41 +1063,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广州·EY动漫嘉年华</t>
+          <t>广州·LoveLive!!only聚会</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+          <t>体育西路54号 星之光潮领地</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.02.12 10:00-02.12 17:00</t>
+          <t>2024.02.24 11:00-02.24 18:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>957</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
-        <v>63</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
+        <v>48.8</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81397</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80574</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/MMh15Yoz1704700792562.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/PR2aoUkc1706156040096.jpeg</t>
         </is>
       </c>
     </row>
@@ -1152,41 +1104,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广州·运动番only4.0</t>
+          <t>广州·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>西湾路150号 悦汇城</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.24 13:00-02.25 19:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>482</v>
+        <v>161</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80624</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80499</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/PIe3tyn61705383800643.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/Z4Q6Fv8B1704770554777.jpeg</t>
         </is>
       </c>
     </row>
@@ -1196,41 +1145,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
+          <t>广州·无限动漫展 国潮限定版</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>芳村花地大道309号(花地湾地铁站A口步行390米) 花地湾生活馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.16 09:30-02.16 16:30</t>
+          <t>2024.02.24 09:30-02.24 17:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>638</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>58</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81457</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79914</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/5TL7q6uK1702897965361.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/kl74TuHi1706255717866.jpeg</t>
         </is>
       </c>
     </row>
@@ -1240,41 +1186,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广州·樱漫动漫嘉年华8.0</t>
+          <t>广州·砂糖桔动漫荟STJ01</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>东沙大道16号 广州国际医药港</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.24 10:00-02.25 18:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1031</v>
+        <v>347</v>
       </c>
       <c r="G19" t="n">
-        <v>58</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80774</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79792</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/pxg3W5Hu1702536379071.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/DVyct79W1705032375001.jpeg</t>
         </is>
       </c>
     </row>
@@ -1284,41 +1227,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广州·星火.AI动漫嘉年华3.0</t>
+          <t>广州·第五届清云动漫展（取消）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>迎宾路(沙溪路段)111号-3 美丽豪酒店(广州沙溪地铁站国际酒店用品城店)</t>
+          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.17 17:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>196</v>
-      </c>
-      <c r="G20" t="n">
-        <v>55</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80502</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80961</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/Fm8iCNPM1705483173204.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/8twXfPtk1704436405178.png</t>
         </is>
       </c>
     </row>
@@ -1328,41 +1270,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广州·cooperative kingdom同人展2.0</t>
+          <t>广州·明日方舟ONLY</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号 岭南电商园</t>
+          <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.18 10:00-02.18 17:00</t>
+          <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>913</v>
+        <v>273</v>
       </c>
       <c r="G21" t="n">
-        <v>55</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80271</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79264</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/lZQgvkwg1701411941873.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/O9z5j7RB1703733578857.jpeg</t>
         </is>
       </c>
     </row>
@@ -1372,41 +1311,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广州·SISP动漫游戏嘉年华</t>
+          <t>广州·排球少年.only</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>西湾路150号 悦汇城</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.24 13:00-02.25 19:00</t>
+          <t>2024.03.09 10:00-03.09 17:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>121</v>
+        <v>497</v>
       </c>
       <c r="G22" t="n">
-        <v>48</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80453</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80624</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/Z4Q6Fv8B1704770554777.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/JYZdnQHl1704341212206.jpeg</t>
         </is>
       </c>
     </row>
@@ -1416,41 +1352,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广州·砂糖桔动漫荟STJ01</t>
+          <t>广州·进击的巨人only</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>东沙大道16号 广州国际医药港</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 18:00</t>
+          <t>2024.03.10 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>237</v>
+        <v>520</v>
       </c>
       <c r="G23" t="n">
         <v>60</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80454</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80774</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/DVyct79W1705032375001.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/m8QkMfFl1704347300282.jpeg</t>
         </is>
       </c>
     </row>
@@ -1460,41 +1393,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广州·第五届清云动漫展（取消）</t>
+          <t>广州·代号鸢only2.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
+          <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.03.16 10:00-03.16 21:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>113</v>
+        <v>708</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79828</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80502</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/8twXfPtk1704436405178.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/RVUVc8oy1702549585918.jpeg</t>
         </is>
       </c>
     </row>
@@ -1504,41 +1434,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广州·明日方舟ONLY</t>
+          <t>广州·原神X星穹铁道X绝区零ONLY</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.03.16 10:00-03.16 17:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="G25" t="n">
         <v>60</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80715</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80271</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/O9z5j7RB1703733578857.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Lt6ZYvA41704878219924.jpeg</t>
         </is>
       </c>
     </row>
@@ -1548,41 +1475,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广州·代号鸢only2.0</t>
+          <t>广州·排球少年ONLY</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 21:00</t>
+          <t>2024.03.23 10:00-03.23 17:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>656</v>
+        <v>132</v>
       </c>
       <c r="G26" t="n">
-        <v>39</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80716</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79828</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/RVUVc8oy1702549585918.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/IFLvYmxx1704879325152.jpeg</t>
         </is>
       </c>
     </row>
@@ -1592,127 +1516,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广州·原神X星穹铁道X绝区零ONLY</t>
+          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
+          <t>同泰路颐和山庄 颐和大酒店</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 17:00</t>
+          <t>2024.04.20 10:00-04.20 17:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="G27" t="n">
-        <v>60</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80282</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80715</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Lt6ZYvA41704878219924.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2024-03-23</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>广州·排球少年ONLY</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2024.03.23 10:00-03.23 17:00</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>96</v>
-      </c>
-      <c r="G28" t="n">
-        <v>60</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80716</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/IFLvYmxx1704879325152.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2024-04-20</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>同泰路颐和山庄 颐和大酒店</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2024.04.20 10:00-04.20 17:00</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>312</v>
-      </c>
-      <c r="G29" t="n">
-        <v>69</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80282</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202312/gaEHIE1F1703745559785.jpeg</t>
         </is>
@@ -1729,7 +1562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,15 +1606,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -1793,41 +1621,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+          <t>东风中路299号 广州中山纪念堂</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.27 20:00-01.27 22:00</t>
+          <t>2024.01.28 19:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>380</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80047</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79638</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/YLZDdSYM1703644823436.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/oyFC3Nma1703055804290.jpeg</t>
         </is>
       </c>
     </row>
@@ -1837,41 +1662,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
+          <t xml:space="preserve">广州·《数码宝贝:游乐园之谜》正版授权实景数码宝贝冒险舞台剧 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>东风中路299号 广州中山纪念堂</t>
+          <t>人民北路696号 广州友谊剧院</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.28 19:00-01.28 21:00</t>
+          <t>2024.02.03 13:30-02.03 15:30</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81020</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80047</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/oyFC3Nma1703055804290.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/8eR496991705559231218.jpeg</t>
         </is>
       </c>
     </row>
@@ -1881,41 +1703,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州·《数码宝贝:游乐园之谜》正版授权实景数码宝贝冒险舞台剧 </t>
+          <t>广州·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>人民北路696号 广州友谊剧院</t>
+          <t>革新路124号 太古仓码头</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.02.03 13:30-02.03 15:30</t>
+          <t>2024.02.04 12:30-02.04 21:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>934</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
+        <v>380</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80147</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81020</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/8eR496991705559231218.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/CNvZoKFi1703244154800.jpeg</t>
         </is>
       </c>
     </row>
@@ -1925,41 +1744,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·次元LAB 二次元电音节</t>
+          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>革新路124号 太古仓码头</t>
+          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.04 12:30-02.04 21:00</t>
+          <t>2024.02.24 20:00-02.24 22:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>852</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>380</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
+        <v>420</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80205</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80147</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/CNvZoKFi1703244154800.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/W0RuZh771703573375987.jpeg</t>
         </is>
       </c>
     </row>
@@ -1969,41 +1785,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
+          <t>广州·「十年之约」封茗囧菌2024个唱</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+          <t>恩宁路265号三层四层自编01 MAO Livehouse广州（永庆坊店）</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.24 20:00-02.24 22:00</t>
+          <t>2024.02.25 15:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="G6" t="n">
-        <v>420</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81462</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80205</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/W0RuZh771703573375987.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/GADzCRlp1706260895679.jpeg</t>
         </is>
       </c>
     </row>
@@ -2013,41 +1826,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>【大会员抢先购】广州·HANAPOKO 2024 LIVE</t>
+          <t>广州·《奥特传奇之希望之光》圆谷正版授权奥特曼系列舞台剧</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
+          <t>人民北路696号 广州友谊剧院</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.03.09 14:00-03.09 15:30</t>
+          <t>2024.03.03 10:30-03.03 15:10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>380</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81023</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81279</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/tMZ1Jp2G1705992352054.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/r6OKUMAF1705997977504.jpeg</t>
         </is>
       </c>
     </row>
@@ -2057,41 +1867,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州·三月的幻想演唱会2024「飞越蓝色时刻」</t>
+          <t>广州·HANAPOKO 2024 LIVE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.03.17 19:00-03.17 20:30</t>
+          <t>2024.03.09 14:00-03.09 15:30</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="G8" t="n">
         <v>380</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81279</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80870</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/8WBT7H6W1705376580145.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/tMZ1Jp2G1705992352054.jpeg</t>
         </is>
       </c>
     </row>
@@ -2101,41 +1908,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广州·春卷饭 十周年  2024  专场演出</t>
+          <t>广州·三月的幻想演唱会2024「飞越蓝色时刻」</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>革新路124号太古仓码头54汇5号仓 太空间Livehouse</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.03.23 20:00-03.23 22:00</t>
+          <t>2024.03.17 19:00-03.17 20:30</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="G9" t="n">
-        <v>480</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80870</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81186</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/ho9rIMg21705894649801.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/8WBT7H6W1705376580145.png</t>
         </is>
       </c>
     </row>
@@ -2145,39 +1949,118 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广州·春卷饭 十周年  2024  专场演出</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>革新路124号太古仓码头54汇5号仓 太空间Livehouse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024.03.23 20:00-03.23 22:00</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>456</v>
+      </c>
+      <c r="G10" t="n">
+        <v>480</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81186</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/ho9rIMg21705894649801.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广州·动漫钢琴鬼才Kyle Xian互动演奏会</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>人民北路696号 广州友谊剧院</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024.04.19 19:30-04.19 21:00</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81434</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/DJpXVLjd1706236823839.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 广州·夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>中山纪念堂 中山纪念堂</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024.04.28 19:30-04.28 21:30</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
         <v>280</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81068</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/pXznRv8G1705633441713.jpeg</t>
         </is>
@@ -2194,7 +2077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2238,17 +2121,53 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广州·次元波板糖×线条小狗MALTESE 主题快闪店</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>天河路299号B1层 天河时尚街</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024.02.01 00:00-03.01 23:59</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>135</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81339</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Qbpful951706080847394.png</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2307,15 +2226,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -2346,20 +2260,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11368</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>11498</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80066</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80066</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202312/A6Y7rq9y1703560330806.jpeg</t>
         </is>
@@ -2376,36 +2289,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广州.星火.AI次元动漫展</t>
+          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>沙滘中路41-50号 火星工厂</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.27 12:00-01.29 00:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1869</v>
+        <v>781</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80415</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78754</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Yq9dmngw1704858430914.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/QrQcGQoV1704268205303.jpeg</t>
         </is>
       </c>
     </row>
@@ -2415,41 +2325,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+          <t>东风中路299号 广州中山纪念堂</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.27 20:00-01.27 22:00</t>
+          <t>2024.01.28 19:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>380</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80047</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79638</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/YLZDdSYM1703644823436.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/oyFC3Nma1703055804290.jpeg</t>
         </is>
       </c>
     </row>
@@ -2459,41 +2366,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·妖都魔法少女小圆ONLY</t>
+          <t>广州·文豪野犬only</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="G5" t="n">
-        <v>68</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80436</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79748</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/usRmAiWv1702894629137.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/ghqTgq3H1705290829994.jpeg</t>
         </is>
       </c>
     </row>
@@ -2503,41 +2407,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州·第七届萌物语动漫嘉年华</t>
+          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+          <t>东圃中山大道中358号 轰谧斯酒店</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.02.01 10:00-02.01 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>815</v>
+        <v>484</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80184</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79317</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/YY2vfMJS1705657564136.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/n7B2YOEs1705908251849.png</t>
         </is>
       </c>
     </row>
@@ -2547,41 +2448,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·第五人格only唐人街春市</t>
+          <t>广州·次元波板糖×线条小狗MALTESE 主题快闪店</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>天河路299号B1层 天河时尚街</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:30</t>
+          <t>2024.02.01 00:00-03.01 23:59</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2411</v>
+        <v>135</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81339</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79038</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/VUDfqbd61701069000614.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Qbpful951706080847394.png</t>
         </is>
       </c>
     </row>
@@ -2591,41 +2489,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
+          <t>从化·FS动漫展</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沙滘中路41-50号 火星工厂</t>
+          <t>从城大道383号 云岭湖酒店</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.27 12:00-01.29 00:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>737</v>
+        <v>1428</v>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77976</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80415</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/QrQcGQoV1704268205303.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/z2IAZVfI1698830153507.jpeg</t>
         </is>
       </c>
     </row>
@@ -2635,41 +2530,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广州·蓝锁only2.0</t>
+          <t xml:space="preserve">广州·《数码宝贝:游乐园之谜》正版授权实景数码宝贝冒险舞台剧 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大石街石北工业大道644号 巨大创意产业园</t>
+          <t>人民北路696号 广州友谊剧院</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.02.03 13:30-02.03 15:30</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>984</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>65</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81020</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79750</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/ERj7a4FV1702459336221.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/8eR496991705559231218.jpeg</t>
         </is>
       </c>
     </row>
@@ -2679,41 +2571,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
+          <t>广州·怀旧ONLY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>东风中路299号 广州中山纪念堂</t>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.28 19:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.03 16:30</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>726</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79752</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80047</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/oyFC3Nma1703055804290.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Ct8POYAX1704185345057.jpeg</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2612,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广州·文豪野犬only</t>
+          <t>广州·原神x星铁x崩坏ONLY</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2738,26 +2627,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.02.04 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>577</v>
+        <v>157</v>
       </c>
       <c r="G11" t="n">
         <v>60</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81073</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80436</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/ghqTgq3H1705290829994.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/z160zins1705635411945.jpeg</t>
         </is>
       </c>
     </row>
@@ -2767,41 +2653,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广州·排球少年.only</t>
+          <t>广州·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>革新路124号 太古仓码头</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.29 10:00-01.29 17:00</t>
+          <t>2024.02.04 12:30-02.04 21:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>444</v>
+        <v>934</v>
       </c>
       <c r="G12" t="n">
-        <v>60</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80147</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80453</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/JYZdnQHl1704341212206.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/CNvZoKFi1703244154800.jpeg</t>
         </is>
       </c>
     </row>
@@ -2811,41 +2694,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广州·进击的巨人only</t>
+          <t>广州 · 原神x星穹铁道Only</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>钟落潭镇 越秀·白云·星汇城</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.30 10:00-01.30 17:00</t>
+          <t>2024.02.12 10:00-02.12 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81331</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80454</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/m8QkMfFl1704347300282.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/RMPUzrbI1706077790086.jpeg</t>
         </is>
       </c>
     </row>
@@ -2855,41 +2735,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
+          <t>广州·EY动漫嘉年华</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>东圃中山大道中358号 轰谧斯酒店</t>
+          <t>钟落潭镇 越秀·白云·星汇城</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.02.01 10:00-02.01 17:00</t>
+          <t>2024.02.12 10:00-02.12 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>436</v>
+        <v>1038</v>
       </c>
       <c r="G14" t="n">
-        <v>68</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80574</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80184</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/n7B2YOEs1705908251849.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/MMh15Yoz1704700792562.jpeg</t>
         </is>
       </c>
     </row>
@@ -2899,41 +2776,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>从化·FS动漫展</t>
+          <t>广州·运动番only4.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>从城大道383号 云岭湖酒店</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1298</v>
+        <v>597</v>
       </c>
       <c r="G15" t="n">
-        <v>35</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80499</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77976</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202311/z2IAZVfI1698830153507.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/PIe3tyn61705383800643.jpeg</t>
         </is>
       </c>
     </row>
@@ -2943,41 +2817,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州·《数码宝贝:游乐园之谜》正版授权实景数码宝贝冒险舞台剧 </t>
+          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>人民北路696号 广州友谊剧院</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.02.03 13:30-02.03 15:30</t>
+          <t>2024.02.16 09:30-02.16 16:30</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>710</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79914</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81020</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/8eR496991705559231218.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/5TL7q6uK1702897965361.jpeg</t>
         </is>
       </c>
     </row>
@@ -2987,41 +2858,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广州·怀旧ONLY</t>
+          <t>广州·樱漫动漫嘉年华8.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 16:30</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>625</v>
+        <v>1202</v>
       </c>
       <c r="G17" t="n">
-        <v>75</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79792</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79752</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Ct8POYAX1704185345057.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/pxg3W5Hu1702536379071.jpeg</t>
         </is>
       </c>
     </row>
@@ -3031,41 +2899,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广州·原神x星铁x崩坏ONLY</t>
+          <t>广州·星火.AI动漫嘉年华3.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>迎宾路(沙溪路段)111号-3 美丽豪酒店(广州沙溪地铁站国际酒店用品城店)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 17:00</t>
+          <t>2024.02.17 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80961</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81073</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/z160zins1705635411945.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/Fm8iCNPM1705483173204.jpeg</t>
         </is>
       </c>
     </row>
@@ -3075,41 +2940,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广州·次元LAB 二次元电音节</t>
+          <t>广州·cooperative kingdom同人展2.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>革新路124号 太古仓码头</t>
+          <t>洛浦街夏滘西环路1号 岭南电商园</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.02.04 12:30-02.04 21:00</t>
+          <t>2024.02.18 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>852</v>
+        <v>969</v>
       </c>
       <c r="G19" t="n">
-        <v>380</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79264</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80147</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/CNvZoKFi1703244154800.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/lZQgvkwg1701411941873.jpeg</t>
         </is>
       </c>
     </row>
@@ -3119,41 +2981,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广州·EY动漫嘉年华</t>
+          <t>广州·LoveLive!!only聚会</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+          <t>体育西路54号 星之光潮领地</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.02.12 10:00-02.12 17:00</t>
+          <t>2024.02.24 11:00-02.24 18:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>957</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>63</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+        <v>48.8</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81397</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80574</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/MMh15Yoz1704700792562.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/PR2aoUkc1706156040096.jpeg</t>
         </is>
       </c>
     </row>
@@ -3163,41 +3022,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广州·运动番only4.0</t>
+          <t>广州·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>西湾路150号 悦汇城</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.24 13:00-02.25 19:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>482</v>
+        <v>161</v>
       </c>
       <c r="G21" t="n">
-        <v>60</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80624</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80499</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/PIe3tyn61705383800643.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/Z4Q6Fv8B1704770554777.jpeg</t>
         </is>
       </c>
     </row>
@@ -3207,41 +3063,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
+          <t>广州·无限动漫展 国潮限定版</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>芳村花地大道309号(花地湾地铁站A口步行390米) 花地湾生活馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.16 09:30-02.16 16:30</t>
+          <t>2024.02.24 09:30-02.24 17:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>638</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>58</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81457</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79914</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/5TL7q6uK1702897965361.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/kl74TuHi1706255717866.jpeg</t>
         </is>
       </c>
     </row>
@@ -3251,41 +3104,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广州·樱漫动漫嘉年华8.0</t>
+          <t>广州·砂糖桔动漫荟STJ01</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>东沙大道16号 广州国际医药港</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.24 10:00-02.25 18:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1031</v>
+        <v>347</v>
       </c>
       <c r="G23" t="n">
-        <v>58</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80774</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79792</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/pxg3W5Hu1702536379071.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/DVyct79W1705032375001.jpeg</t>
         </is>
       </c>
     </row>
@@ -3295,41 +3145,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广州·星火.AI动漫嘉年华3.0</t>
+          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>迎宾路(沙溪路段)111号-3 美丽豪酒店(广州沙溪地铁站国际酒店用品城店)</t>
+          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.17 17:00</t>
+          <t>2024.02.24 20:00-02.24 22:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>55</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80205</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80961</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/Fm8iCNPM1705483173204.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/W0RuZh771703573375987.jpeg</t>
         </is>
       </c>
     </row>
@@ -3339,41 +3186,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广州·cooperative kingdom同人展2.0</t>
+          <t>广州·「十年之约」封茗囧菌2024个唱</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号 岭南电商园</t>
+          <t>恩宁路265号三层四层自编01 MAO Livehouse广州（永庆坊店）</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.02.18 10:00-02.18 17:00</t>
+          <t>2024.02.25 15:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>913</v>
+        <v>149</v>
       </c>
       <c r="G25" t="n">
-        <v>55</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81462</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79264</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/lZQgvkwg1701411941873.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/GADzCRlp1706260895679.jpeg</t>
         </is>
       </c>
     </row>
@@ -3383,41 +3227,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广州·SISP动漫游戏嘉年华</t>
+          <t>广州·第五届清云动漫展（取消）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>西湾路150号 悦汇城</t>
+          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.02.24 13:00-02.25 19:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>121</v>
-      </c>
-      <c r="G26" t="n">
-        <v>48</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80502</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80624</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/Z4Q6Fv8B1704770554777.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/8twXfPtk1704436405178.png</t>
         </is>
       </c>
     </row>
@@ -3427,41 +3270,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广州·砂糖桔动漫荟STJ01</t>
+          <t>广州·明日方舟ONLY</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>东沙大道16号 广州国际医药港</t>
+          <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 18:00</t>
+          <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G27" t="n">
         <v>60</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80271</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80774</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/DVyct79W1705032375001.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/O9z5j7RB1703733578857.jpeg</t>
         </is>
       </c>
     </row>
@@ -3471,41 +3311,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
+          <t>广州·《奥特传奇之希望之光》圆谷正版授权奥特曼系列舞台剧</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+          <t>人民北路696号 广州友谊剧院</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.02.24 20:00-02.24 22:00</t>
+          <t>2024.03.03 10:30-03.03 15:10</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>420</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81023</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80205</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/W0RuZh771703573375987.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/r6OKUMAF1705997977504.jpeg</t>
         </is>
       </c>
     </row>
@@ -3515,41 +3352,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广州·第五届清云动漫展（取消）</t>
+          <t>广州·HANAPOKO 2024 LIVE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
+          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.03.09 14:00-03.09 15:30</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81279</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80502</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/8twXfPtk1704436405178.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/tMZ1Jp2G1705992352054.jpeg</t>
         </is>
       </c>
     </row>
@@ -3559,41 +3393,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广州·明日方舟ONLY</t>
+          <t>广州·HANAPOKO 2024 LIVE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.03.09 14:00-03.09 15:30</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81279</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80271</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/O9z5j7RB1703733578857.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/tMZ1Jp2G1705992352054.jpeg</t>
         </is>
       </c>
     </row>
@@ -3608,36 +3439,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>【大会员抢先购】广州·HANAPOKO 2024 LIVE</t>
+          <t>广州·排球少年.only</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.03.09 14:00-03.09 15:30</t>
+          <t>2024.03.09 10:00-03.09 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>497</v>
       </c>
       <c r="G31" t="n">
-        <v>380</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80453</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81279</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/tMZ1Jp2G1705992352054.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/JYZdnQHl1704341212206.jpeg</t>
         </is>
       </c>
     </row>
@@ -3647,41 +3475,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>广州·代号鸢only2.0</t>
+          <t>广州·进击的巨人only</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 21:00</t>
+          <t>2024.03.10 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>656</v>
+        <v>520</v>
       </c>
       <c r="G32" t="n">
-        <v>39</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80454</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79828</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/RVUVc8oy1702549585918.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/m8QkMfFl1704347300282.jpeg</t>
         </is>
       </c>
     </row>
@@ -3696,36 +3521,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>广州·原神X星穹铁道X绝区零ONLY</t>
+          <t>广州·代号鸢only2.0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
+          <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 17:00</t>
+          <t>2024.03.16 10:00-03.16 21:00</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>156</v>
+        <v>708</v>
       </c>
       <c r="G33" t="n">
-        <v>60</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79828</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80715</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Lt6ZYvA41704878219924.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/RVUVc8oy1702549585918.jpeg</t>
         </is>
       </c>
     </row>
@@ -3735,41 +3557,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>广州·三月的幻想演唱会2024「飞越蓝色时刻」</t>
+          <t>广州·原神X星穹铁道X绝区零ONLY</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024.03.17 19:00-03.17 20:30</t>
+          <t>2024.03.16 10:00-03.16 17:00</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="G34" t="n">
-        <v>380</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80715</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80870</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/8WBT7H6W1705376580145.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Lt6ZYvA41704878219924.jpeg</t>
         </is>
       </c>
     </row>
@@ -3779,41 +3598,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广州·排球少年ONLY</t>
+          <t>广州·三月的幻想演唱会2024「飞越蓝色时刻」</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024.03.23 10:00-03.23 17:00</t>
+          <t>2024.03.17 19:00-03.17 20:30</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="G35" t="n">
-        <v>60</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80870</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80716</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/IFLvYmxx1704879325152.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/8WBT7H6W1705376580145.png</t>
         </is>
       </c>
     </row>
@@ -3828,36 +3644,33 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广州·春卷饭 十周年  2024  专场演出</t>
+          <t>广州·排球少年ONLY</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>革新路124号太古仓码头54汇5号仓 太空间Livehouse</t>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024.03.23 20:00-03.23 22:00</t>
+          <t>2024.03.23 10:00-03.23 17:00</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="G36" t="n">
-        <v>480</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80716</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81186</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/ho9rIMg21705894649801.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/IFLvYmxx1704879325152.jpeg</t>
         </is>
       </c>
     </row>
@@ -3867,41 +3680,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-04-20</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
+          <t>广州·春卷饭 十周年  2024  专场演出</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄 颐和大酒店</t>
+          <t>革新路124号太古仓码头54汇5号仓 太空间Livehouse</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024.04.20 10:00-04.20 17:00</t>
+          <t>2024.03.23 20:00-03.23 22:00</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>312</v>
+        <v>456</v>
       </c>
       <c r="G37" t="n">
-        <v>69</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81186</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80282</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/gaEHIE1F1703745559785.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/ho9rIMg21705894649801.jpeg</t>
         </is>
       </c>
     </row>
@@ -3911,39 +3721,118 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广州·动漫钢琴鬼才Kyle Xian互动演奏会</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>人民北路696号 广州友谊剧院</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024.04.19 19:30-04.19 21:00</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>64</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81434</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/DJpXVLjd1706236823839.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>同泰路颐和山庄 颐和大酒店</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024.04.20 10:00-04.20 17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>342</v>
+      </c>
+      <c r="G39" t="n">
+        <v>69</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80282</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/gaEHIE1F1703745559785.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve"> 广州·夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>中山纪念堂 中山纪念堂</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2024.04.28 19:30-04.28 21:30</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>4</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="n">
         <v>280</v>
       </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81068</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/pXznRv8G1705633441713.jpeg</t>
         </is>
